--- a/DOM_Banner/output/dept_banner/Donald Perry_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Donald Perry_2023.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>list(au_id = c("https://openalex.org/A5085948854", "https://openalex.org/A5078667532", "https://openalex.org/A5046951092", "https://openalex.org/A5026668665", "https://openalex.org/A5044048621", "https://openalex.org/A5015480621", "https://openalex.org/A5068100543", "https://openalex.org/A5049294221", "https://openalex.org/A5054426393", "https://openalex.org/A5021859030"), au_display_name = c("Jeffrey Berinstein", "Claudia Steiner", "Samara Rifkin", "D. Alexander Perry", "Dejan Mićić", "Daniel Shirley", 
+          <t>list(au_id = c("https://openalex.org/A5085948854", "https://openalex.org/A5078667532", "https://openalex.org/A5046951092", "https://openalex.org/A5026668665", "https://openalex.org/A5044048621", "https://openalex.org/A5015480621", "https://openalex.org/A5068100543", "https://openalex.org/A5049294221", "https://openalex.org/A5054426393", "https://openalex.org/A5021859030"), au_display_name = c("Jeffrey Berinstein", "Claudia Steiner", "Samara Rifkin", "D. Alexander Perry", "Dejan Micić", "Daniel Shirley", 
 "Peter Higgins", "Vincent B. Young", "Allen Lee", "Krishna Rao"), au_orcid = c("https://orcid.org/0000-0001-7631-9665", "https://orcid.org/0000-0002-1964-010X", "https://orcid.org/0000-0002-6015-7232", NA, NA, "https://orcid.org/0000-0002-7901-7512", "https://orcid.org/0000-0003-1602-4341", NA, "https://orcid.org/0000-0002-4861-7646", "https://orcid.org/0000-0002-9213-7850"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Division of Gastroenterology and Hepatology, University of Michigan , Ann Arbor, Michigan , USA", 
 "Department of Medicine and the Mucosal Inflammation Program, University of Colorado School of Medicine , Aurora, Colorado , USA; Division of Gastroenterology and Hepatology, University of Colorado Anschutz Medical Campus , Aurora, Colorado , USA", "Division of Gastroenterology and Hepatology, University of Michigan , Ann Arbor, Michigan , USA", "Division of Infectious Diseases, University of Arizona , Tucson, Arizona , USA", "Section of Gastroenterology, Hepatology, and Nutrition, University of Chicago , Chicago, Illinois , USA", 
 "Division of Infectious Diseases, University of Wisconsin , Madison, Wisconsin , USA", "Division of Gastroenterology and Hepatology, University of Michigan , Ann Arbor, Michigan , USA", "Division of Infectious Diseases, University of Michigan , Ann Arbor, Michigan , USA", "Division of Gastroenterology and Hepatology, University of Michigan , Ann Arbor, Michigan , USA", "Division of Infectious Diseases, University of Michigan , Ann Arbor, Michigan , USA"), institution_id = c("https://openalex.org/I27837315", 

--- a/DOM_Banner/output/dept_banner/Donald Perry_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Donald Perry_2023.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>list(au_id = c("https://openalex.org/A5085948854", "https://openalex.org/A5078667532", "https://openalex.org/A5046951092", "https://openalex.org/A5026668665", "https://openalex.org/A5044048621", "https://openalex.org/A5015480621", "https://openalex.org/A5068100543", "https://openalex.org/A5049294221", "https://openalex.org/A5054426393", "https://openalex.org/A5021859030"), au_display_name = c("Jeffrey Berinstein", "Claudia Steiner", "Samara Rifkin", "D. Alexander Perry", "Dejan Micić", "Daniel Shirley", 
+          <t>list(au_id = c("https://openalex.org/A5085948854", "https://openalex.org/A5078667532", "https://openalex.org/A5046951092", "https://openalex.org/A5026668665", "https://openalex.org/A5044048621", "https://openalex.org/A5015480621", "https://openalex.org/A5068100543", "https://openalex.org/A5049294221", "https://openalex.org/A5054426393", "https://openalex.org/A5021859030"), au_display_name = c("Jeffrey Berinstein", "Claudia Steiner", "Samara Rifkin", "D. Alexander Perry", "Dejan Mićić", "Daniel Shirley", 
 "Peter Higgins", "Vincent B. Young", "Allen Lee", "Krishna Rao"), au_orcid = c("https://orcid.org/0000-0001-7631-9665", "https://orcid.org/0000-0002-1964-010X", "https://orcid.org/0000-0002-6015-7232", NA, NA, "https://orcid.org/0000-0002-7901-7512", "https://orcid.org/0000-0003-1602-4341", NA, "https://orcid.org/0000-0002-4861-7646", "https://orcid.org/0000-0002-9213-7850"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Division of Gastroenterology and Hepatology, University of Michigan , Ann Arbor, Michigan , USA", 
 "Department of Medicine and the Mucosal Inflammation Program, University of Colorado School of Medicine , Aurora, Colorado , USA; Division of Gastroenterology and Hepatology, University of Colorado Anschutz Medical Campus , Aurora, Colorado , USA", "Division of Gastroenterology and Hepatology, University of Michigan , Ann Arbor, Michigan , USA", "Division of Infectious Diseases, University of Arizona , Tucson, Arizona , USA", "Section of Gastroenterology, Hepatology, and Nutrition, University of Chicago , Chicago, Illinois , USA", 
 "Division of Infectious Diseases, University of Wisconsin , Madison, Wisconsin , USA", "Division of Gastroenterology and Hepatology, University of Michigan , Ann Arbor, Michigan , USA", "Division of Infectious Diseases, University of Michigan , Ann Arbor, Michigan , USA", "Division of Gastroenterology and Hepatology, University of Michigan , Ann Arbor, Michigan , USA", "Division of Infectious Diseases, University of Michigan , Ann Arbor, Michigan , USA"), institution_id = c("https://openalex.org/I27837315", 

--- a/DOM_Banner/output/dept_banner/Donald Perry_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Donald Perry_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,528 +360,246 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Jeffrey Berinstein, Claudia Steiner, Samara Rifkin, D. Alexander Perry, Dejan Mićić, Daniel Shirley, Peter Higgins, Vincent B. Young, Allen Lee, Krishna Rao</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319037880</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>A Predictive Model to Identify Complicated&lt;i&gt;Clostridiodes difficile&lt;/i&gt;Infection</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5085948854", "https://openalex.org/A5078667532", "https://openalex.org/A5046951092", "https://openalex.org/A5026668665", "https://openalex.org/A5044048621", "https://openalex.org/A5015480621", "https://openalex.org/A5068100543", "https://openalex.org/A5049294221", "https://openalex.org/A5054426393", "https://openalex.org/A5021859030"), au_display_name = c("Jeffrey Berinstein", "Claudia Steiner", "Samara Rifkin", "D. Alexander Perry", "Dejan Mićić", "Daniel Shirley", 
-"Peter Higgins", "Vincent B. Young", "Allen Lee", "Krishna Rao"), au_orcid = c("https://orcid.org/0000-0001-7631-9665", "https://orcid.org/0000-0002-1964-010X", "https://orcid.org/0000-0002-6015-7232", NA, NA, "https://orcid.org/0000-0002-7901-7512", "https://orcid.org/0000-0003-1602-4341", NA, "https://orcid.org/0000-0002-4861-7646", "https://orcid.org/0000-0002-9213-7850"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Division of Gastroenterology and Hepatology, University of Michigan , Ann Arbor, Michigan , USA", 
-"Department of Medicine and the Mucosal Inflammation Program, University of Colorado School of Medicine , Aurora, Colorado , USA; Division of Gastroenterology and Hepatology, University of Colorado Anschutz Medical Campus , Aurora, Colorado , USA", "Division of Gastroenterology and Hepatology, University of Michigan , Ann Arbor, Michigan , USA", "Division of Infectious Diseases, University of Arizona , Tucson, Arizona , USA", "Section of Gastroenterology, Hepatology, and Nutrition, University of Chicago , Chicago, Illinois , USA", 
-"Division of Infectious Diseases, University of Wisconsin , Madison, Wisconsin , USA", "Division of Gastroenterology and Hepatology, University of Michigan , Ann Arbor, Michigan , USA", "Division of Infectious Diseases, University of Michigan , Ann Arbor, Michigan , USA", "Division of Gastroenterology and Hepatology, University of Michigan , Ann Arbor, Michigan , USA", "Division of Infectious Diseases, University of Michigan , Ann Arbor, Michigan , USA"), institution_id = c("https://openalex.org/I27837315", 
-"https://openalex.org/I51713134", "https://openalex.org/I27837315", "https://openalex.org/I138006243", "https://openalex.org/I40347166", "https://openalex.org/I135310074", "https://openalex.org/I27837315", "https://openalex.org/I27837315", "https://openalex.org/I27837315", "https://openalex.org/I27837315"), institution_display_name = c("University of Michigan–Ann Arbor", "University of Colorado Anschutz Medical Campus", "University of Michigan–Ann Arbor", "University of Arizona", "University of Chicago", 
-"University of Wisconsin–Madison", "University of Michigan–Ann Arbor", "University of Michigan–Ann Arbor", "University of Michigan–Ann Arbor", "University of Michigan–Ann Arbor"), institution_ror = c("https://ror.org/00jmfr291", "https://ror.org/03wmf1y16", "https://ror.org/00jmfr291", "https://ror.org/03m2x1q45", "https://ror.org/024mw5h28", "https://ror.org/01y2jtd41", "https://ror.org/00jmfr291", "https://ror.org/00jmfr291", "https://ror.org/00jmfr291", "https://ror.org/00jmfr291"), 
-    institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US", "US", "US"), institution_type = c("education", "education", "education", "education", "education", "education", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I27837315", "https://openalex.org/I2802236040, https://openalex.org/I51713134", "https://openalex.org/I27837315", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I40347166", 
-    "https://openalex.org/I1304256225, https://openalex.org/I135310074", "https://openalex.org/I27837315", "https://openalex.org/I27837315", "https://openalex.org/I27837315", "https://openalex.org/I27837315"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Abstract Background Clostridioides difficile infection (CDI) is a leading cause of health care–associated infection and may result in organ dysfunction, colectomy, and death. Published risk scores to predict severe complications from CDI demonstrate poor performance upon external validation. We hypothesized that building and validating a model using geographically and temporally distinct cohorts would more accurately predict risk for complications from CDI. Methods We conducted a multicenter retrospective cohort study of adults diagnosed with CDI. After randomly partitioning the data into training and validation sets, we developed and compared 3 machine learning algorithms (lasso regression, random forest, stacked ensemble) with 10-fold cross-validation to predict disease-related complications (intensive care unit admission, colectomy, or death attributable to CDI) within 30 days of diagnosis. Model performance was assessed using the area under the receiver operating curve (AUC). Results A total of 3646 patients with CDI were included, of whom 217 (6%) had complications. All 3 models performed well (AUC, 0.88–0.89). Variables of importance were similar across models, including albumin, bicarbonate, change in creatinine, non-CDI-related intensive care unit admission, and concomitant non-CDI antibiotics. Sensitivity analyses indicated that model performance was robust even when varying derivation cohort inclusion and CDI testing approach. However, race was an important modifier, with models showing worse performance in non-White patients. Conclusions Using a large heterogeneous population of patients, we developed and validated a prediction model that estimates risk for complications from CDI with good accuracy. Future studies should aim to reduce the disparity in model accuracy between White and non-White patients and to improve performance overall.</t>
+          <t>2023-02-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-02-01</t>
+          <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Open Forum Infectious Diseases</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2735126445</t>
+          <t>https://doi.org/10.1093/ofid/ofad049</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2328-8957</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36820317</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1093/ofid/ofad049</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://academic.oup.com/ofid/article-pdf/10/2/ofad049/49254349/ofad049.pdf</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by-nc-nd</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://academic.oup.com/ofid/article-pdf/10/2/ofad049/49254349/ofad049.pdf</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4319037880</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4319037880", doi = "https://doi.org/10.1093/ofid/ofad049", pmid = "https://pubmed.ncbi.nlm.nih.gov/36820317")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1093/ofid/ofad049</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1550111394", "https://openalex.org/W1973139630", "https://openalex.org/W2017617820", "https://openalex.org/W2029405758", "https://openalex.org/W2035454322", "https://openalex.org/W2064186732", "https://openalex.org/W2071054182", "https://openalex.org/W2081532768", "https://openalex.org/W2090779061", "https://openalex.org/W2093653075", "https://openalex.org/W2097360283", "https://openalex.org/W2138105286", "https://openalex.org/W2141019052", "https://openalex.org/W2148012646", 
-"https://openalex.org/W2153155854", "https://openalex.org/W2156065644", "https://openalex.org/W2167412689", "https://openalex.org/W2317798302", "https://openalex.org/W2331696210", "https://openalex.org/W2791326569", "https://openalex.org/W2808708645", "https://openalex.org/W2973709813", "https://openalex.org/W2986606263", "https://openalex.org/W2990535154", "https://openalex.org/W3091942970", "https://openalex.org/W3098278632", "https://openalex.org/W3102027041", "https://openalex.org/W3102476541", 
-"https://openalex.org/W3121044953", "https://openalex.org/W3198566262", "https://openalex.org/W3207078983", "https://openalex.org/W4226150755", "https://openalex.org/W4226390647", "https://openalex.org/W4251404301", "https://openalex.org/W4280519765", "https://openalex.org/W4283215887", "https://openalex.org/W4294541781")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2057472247", "https://openalex.org/W1551601049", "https://openalex.org/W3204020609", "https://openalex.org/W3204711385", "https://openalex.org/W2241814807", "https://openalex.org/W3190029335", "https://openalex.org/W2080135567", "https://openalex.org/W3031320482", "https://openalex.org/W4306247841", "https://openalex.org/W4210434819")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Mario Jaramillo, Ahmad Musmar, Aishan Shi, Shaden Al Momani, D. Alexander Perry, Tirdad T. Zangeneh</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4389030868</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>688. Risk of &lt;i&gt;Clostridioides difficile&lt;/i&gt; Infection and Antibiotic Associated Diarrhea in Patients Receiving Outpatient Parenteral Antimicrobial Therapy</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5080543625", "https://openalex.org/A5039963403", "https://openalex.org/A5018989425", "https://openalex.org/A5026584720", "https://openalex.org/A5026668665", "https://openalex.org/A5076993071"), au_display_name = c("Mario Jaramillo", "Ahmad Musmar", "Aishan Shi", "Shaden Al Momani", "D. Alexander Perry", "Tirdad T. Zangeneh"), au_orcid = c(NA, NA, NA, NA, NA, "https://orcid.org/0000-0002-9035-2952"), author_position = c("first", "middle", "middle", "middle", "middle", 
-"last"), au_affiliation_raw = c("University of Arizona-Tucson , Tucson, Arizona", "University of Arizona , Tucson, Arizona", "Banner University of Arizona Tucson , Tucson, Arizona", "University of Arizona-Tucson , Tucson, Arizona", "University of Arizona-Tucson , Tucson, Arizona", "University of Arizona , Tucson, Arizona"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I4210124665", "https://openalex.org/I138006243", "https://openalex.org/I138006243", 
-"https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "University of Arizona", "Banner - University Medical Center Tucson", "University of Arizona", "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/02xbk5j62", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", "US", "US", "US"), institution_type = c("education", 
-"education", "healthcare", "education", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I4210124665", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Abstract Background The colonic microbiome plays a critical role in resisting the ingrowth of pathogenic microbes like Clostridioides difficile (C. difficile). Disruption of the microbiome by antibiotics is known to cause antibiotic-associated diarrhea (AAD) and C. difficile infection (CDI). Outpatient parenteral antimicrobial therapy (OPAT) reduces hospital length of stay and exposure to healthcare-associated pathogens which may decrease the incidence of CDI. Previous studies that compared patients who received metronidazole for non-CDI indications with those who did not found a reduction in CDI among patients who received metronidazole. The aim was to study the incidence of AAD and CDI in the OPAT patient population and compare the incidence rate between patients who received oral metronidazole for non-CDI indications with those who did not. Methods We retrospectively reviewed a cohort from our facility's OPAT program. We included adult patients (18 years or older) discharged to home or skilled nursing facility (SNF) on OPAT over a 2-year time span, regardless of diagnosis. Pregnant patients, patients with active CDI before starting OPAT, and those who were receiving an associated CDI treatment were excluded. Antibiotic-associated diarrhea was defined as 3 or more loose or watery stools per day with negative CDI testing or spontaneous improvement after stopping antibiotics. Community-onset and healthcare facility–associated CDI (CO-HCFA CDI) was defined as 3 or more watery stools per day with a positive stool C. difficile diagnostic test in the community or within the first 3 days of readmission, provided the diagnosis was made less than 4 weeks since discharge from a healthcare facility. Demographics of Patients Discharged on OPAT. Patients selected between June 1, 2018 and June 2020, grouped by whether or not they developed Clostridioides difficile infection (CDI). SD= standard deviation; Q1= 1st quartile; Q3= 3rd quartile. Results Of the 617 charts that met inclusion criteria, 31 had AAD and 3 had CO-HCFA CDI. Incidence of CO-HCFA CDI was &amp;amp;lt; 1%; &amp;amp;lt; 1 per 1000 person-day and incidence of AAD was 5.02%. The protective role of metronidazole could not be studied due to the rarity of CDI in this study. Patients with positive CDI after initiation of OPAT and associated characteristics. Conclusion Although our study was not able to answer our initial question when comparing the effect of metronidazole within OPAT groups and rates of CDI, our data is promising for showing low rates of CDI in patients receiving OPAT. This study demonstrates the putative benefits of OPAT with reduced CDI incidence regardless of use of anti-CDI drugs. Disclosures Tirdad Zangeneh, DO, AiCuris: Grant/Research Support</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Open Forum Infectious Diseases</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2735126445</t>
+          <t>https://doi.org/10.1093/ofid/ofad500.750</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2328-8957</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1093/ofid/ofad500.750</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://academic.oup.com/ofid/article-pdf/10/Supplement_2/ofad500.750/53752489/ofad500.750.pdf</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Supplement_2</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>https://academic.oup.com/ofid/article-pdf/10/Supplement_2/ofad500.750/53752489/ofad500.750.pdf</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4389030868</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4389030868", doi = "https://doi.org/10.1093/ofid/ofad500.750")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1093/ofid/ofad500.750</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2057942785", "https://openalex.org/W2384259589", "https://openalex.org/W2804144603", "https://openalex.org/W3143269241", "https://openalex.org/W2380918668", "https://openalex.org/W2369556393", "https://openalex.org/W2392977542", "https://openalex.org/W2383240408", "https://openalex.org/W2390307568", "https://openalex.org/W2358792819")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Donald Perry_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Donald Perry_2023.xlsx
@@ -442,7 +442,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jeffrey Berinstein, Claudia Steiner, Samara Rifkin, D. Alexander Perry, Dejan Mićić, Daniel Shirley, Peter Higgins, Vincent B. Young, Allen Lee, Krishna Rao</t>
+          <t>Jeffrey Berinstein, Claudia Steiner, Samara Rifkin, D. Alexander Perry, Dejan Micić, Daniel Shirley, Peter Higgins, Vincent B. Young, Allen Lee, Krishna Rao</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Donald Perry_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Donald Perry_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Gastroenterology and Hepatology, University of Michigan , Ann Arbor, Michigan , USA; Department of Medicine and the Mucosal Inflammation Program, University of Colorado School of Medicine , Aurora, Colorado , USA; Division of Gastroenterology and Hepatology, University of Colorado Anschutz Medical Campus , Aurora, Colorado , USA; Division of Gastroenterology and Hepatology, University of Michigan , Ann Arbor, Michigan , USA; Division of Infectious Diseases, University of Arizona , Tucson, Arizona , USA; Section of Gastroenterology, Hepatology, and Nutrition, University of Chicago , Chicago, Illinois , USA; Division of Infectious Diseases, University of Wisconsin , Madison, Wisconsin , USA; Division of Gastroenterology and Hepatology, University of Michigan , Ann Arbor, Michigan , USA; Division of Infectious Diseases, University of Michigan , Ann Arbor, Michigan , USA; Division of Gastroenterology and Hepatology, University of Michigan , Ann Arbor, Michigan , USA; Division of Infectious Diseases, University of Michigan , Ann Arbor, Michigan , USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319037880</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A Predictive Model to Identify Complicated&lt;i&gt;Clostridiodes difficile&lt;/i&gt;Infection</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofad049</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36820317</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofad049</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>University of Arizona-Tucson , Tucson, Arizona; University of Arizona , Tucson, Arizona; Banner University of Arizona Tucson , Tucson, Arizona; University of Arizona-Tucson , Tucson, Arizona; University of Arizona-Tucson , Tucson, Arizona; University of Arizona , Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4389030868</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>688. Risk of &lt;i&gt;Clostridioides difficile&lt;/i&gt; Infection and Antibiotic Associated Diarrhea in Patients Receiving Outpatient Parenteral Antimicrobial Therapy</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofad500.750</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofad500.750</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
